--- a/Schibsted modell.xlsx
+++ b/Schibsted modell.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10102"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/augusthodt/Desktop/Aksjemodellering/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:41000001_{45744133-DA16-E442-B70C-B8C640F331BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09A8B41A-458F-C842-88DA-FF9B23DC1F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24280" yWindow="500" windowWidth="26920" windowHeight="26740" activeTab="1" xr2:uid="{CF2EC152-6970-7944-95E4-562C87096A91}"/>
+    <workbookView xWindow="24380" yWindow="500" windowWidth="26820" windowHeight="26740" activeTab="2" xr2:uid="{CF2EC152-6970-7944-95E4-562C87096A91}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,16 @@
     <sheet name="Nøkkeltall" sheetId="3" r:id="rId5"/>
     <sheet name="Nedsideberegning" sheetId="6" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">SOTP!$A$52:$A$71</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">SOTP!$B$52:$B$71</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">SOTP!$A$52:$A$71</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">SOTP!$B$52:$B$71</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">SOTP!$A$60:$A$79</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">SOTP!$B$60:$B$79</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">SOTP!$A$52:$A$71</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">SOTP!$B$52:$B$71</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -83,9 +93,9 @@
     </comment>
     <comment ref="Q96" authorId="1" shapeId="0" xr:uid="{E5699847-6F38-F14C-9990-E3D93B3EBEA3}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentartråd]
+Din versjon av Excel lar deg lese denne kommentartråden. Eventuelle endringer i den vil imidlertid bli fjernet hvis filen åpnes i en nyere versjon av Excel. Finn ut mer: https://go.microsoft.com/fwlink/?linkid=870924
+Kommentar:
     Proceeds from capital repayment 3 883</t>
       </text>
     </comment>
@@ -94,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="256">
   <si>
     <t>Kapitalstruktur</t>
   </si>
@@ -859,9 +869,6 @@
     <t>Opp/nedside</t>
   </si>
   <si>
-    <t>Nedside</t>
-  </si>
-  <si>
     <t>FINN</t>
   </si>
   <si>
@@ -953,6 +960,18 @@
   </si>
   <si>
     <t>12.01.26: Vend kjøper tilbake  215 459 aksjer</t>
+  </si>
+  <si>
+    <t>Lage sens anlyse med EBITDA 27 og EV</t>
+  </si>
+  <si>
+    <t>19.01.26: Vend kjøper tilbake 389 822 aksjer</t>
+  </si>
+  <si>
+    <t>26.01.26: Vend kjøper tilbake 379 473 aksjer</t>
+  </si>
+  <si>
+    <t>29.01.26: Konkuransetilsynet har hatt en Razzia hos Nettbil, en etterfosking er i gang, men Vend kommenterer ikke hva det innebærer</t>
   </si>
 </sst>
 </file>
@@ -1050,7 +1069,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1060,6 +1079,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1167,7 +1192,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1222,13 +1247,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1236,9 +1255,30 @@
     <xf numFmtId="8" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperkobling" xfId="1" builtinId="8"/>
@@ -1255,6 +1295,681 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.4</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.5</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>SOTP VEND</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="nb-NO" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>SOTP VEND</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="waterfall" uniqueId="{3C7A0C15-3AB3-2B4B-A064-F7D34B34B5A9}">
+          <cx:dataPt idx="4">
+            <cx:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </cx:spPr>
+          </cx:dataPt>
+          <cx:dataPt idx="5"/>
+          <cx:dataPt idx="13"/>
+          <cx:dataPt idx="19"/>
+          <cx:dataLabels pos="outEnd">
+            <cx:visibility seriesName="0" categoryName="0" value="1"/>
+            <cx:dataLabel idx="15"/>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:subtotals>
+              <cx:idx val="5"/>
+              <cx:idx val="13"/>
+              <cx:idx val="19"/>
+            </cx:subtotals>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0.5"/>
+        <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1400" b="1"/>
+            </a:pPr>
+            <a:endParaRPr lang="nb-NO" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:txPr>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>NOK/share</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1600" b="1"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="nb-NO" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                </a:rPr>
+                <a:t>NOK/share</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="395">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1301,6 +2016,89 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Diagram 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D793D763-529B-8B14-DC15-F32833FC4506}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="863600" y="7588250"/>
+              <a:ext cx="8623300" cy="6318250"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="nb-NO" sz="1100"/>
+                <a:t>Diagrammet er ikke tilgjengelig i din versjon av Excel.
+Hvis du redigerer denne figuren eller lagrer denne arbeidsboken i et annet filformat, blir diagrammet ødelagt for godt.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1617,20 +2415,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17698142-E94C-684E-8A27-765BEE6464F1}">
-  <dimension ref="A1:R45"/>
+  <dimension ref="A1:R48"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8515625" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="13" width="10.8515625" style="1"/>
-    <col min="14" max="14" width="12.69921875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="10.8515625" style="1"/>
-    <col min="16" max="16" width="11.9609375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.80859375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="10.8515625" style="1"/>
+    <col min="1" max="13" width="10.83203125" style="1"/>
+    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.83203125" style="1"/>
+    <col min="16" max="16" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -1716,19 +2514,19 @@
       <c r="A18" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="N18" s="56" t="s">
+      <c r="N18" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="O18" s="56" t="s">
+      <c r="O18" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="P18" s="56" t="s">
+      <c r="P18" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="Q18" s="56" t="s">
+      <c r="Q18" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="R18" s="56" t="s">
+      <c r="R18" s="52" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1736,91 +2534,91 @@
       <c r="A19" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="N19" s="57" t="s">
-        <v>222</v>
-      </c>
-      <c r="O19" s="57" t="s">
-        <v>222</v>
-      </c>
-      <c r="P19" s="57" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q19" s="57" t="s">
-        <v>222</v>
-      </c>
-      <c r="R19" s="57" t="s">
-        <v>233</v>
+      <c r="N19" s="53" t="s">
+        <v>221</v>
+      </c>
+      <c r="O19" s="53" t="s">
+        <v>221</v>
+      </c>
+      <c r="P19" s="53" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q19" s="53" t="s">
+        <v>221</v>
+      </c>
+      <c r="R19" s="53" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="N20" s="57" t="s">
-        <v>223</v>
-      </c>
-      <c r="O20" s="57" t="s">
-        <v>223</v>
-      </c>
-      <c r="P20" s="57" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q20" s="57" t="s">
-        <v>223</v>
-      </c>
-      <c r="R20" s="57"/>
+      <c r="N20" s="53" t="s">
+        <v>222</v>
+      </c>
+      <c r="O20" s="53" t="s">
+        <v>222</v>
+      </c>
+      <c r="P20" s="53" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q20" s="53" t="s">
+        <v>222</v>
+      </c>
+      <c r="R20" s="53"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="N21" s="57" t="s">
-        <v>249</v>
-      </c>
-      <c r="O21" s="57"/>
-      <c r="P21" s="57" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q21" s="57" t="s">
-        <v>231</v>
-      </c>
-      <c r="R21" s="57"/>
+      <c r="N21" s="53" t="s">
+        <v>248</v>
+      </c>
+      <c r="O21" s="53"/>
+      <c r="P21" s="53" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q21" s="53" t="s">
+        <v>230</v>
+      </c>
+      <c r="R21" s="53"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="N22" s="57" t="s">
+      <c r="N22" s="53" t="s">
+        <v>223</v>
+      </c>
+      <c r="O22" s="53"/>
+      <c r="P22" s="53" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q22" s="53" t="s">
+        <v>231</v>
+      </c>
+      <c r="R22" s="53"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N23" s="53" t="s">
         <v>224</v>
       </c>
-      <c r="O22" s="57"/>
-      <c r="P22" s="57" t="s">
+      <c r="O23" s="53"/>
+      <c r="P23" s="53" t="s">
         <v>229</v>
       </c>
-      <c r="Q22" s="57" t="s">
-        <v>232</v>
-      </c>
-      <c r="R22" s="57"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="N23" s="57" t="s">
+      <c r="Q23" s="53"/>
+      <c r="R23" s="53"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N24" s="53" t="s">
         <v>225</v>
       </c>
-      <c r="O23" s="57"/>
-      <c r="P23" s="57" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q23" s="57"/>
-      <c r="R23" s="57"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="N24" s="57" t="s">
-        <v>226</v>
-      </c>
-      <c r="O24" s="57"/>
-      <c r="P24" s="57"/>
-      <c r="Q24" s="57"/>
-      <c r="R24" s="57"/>
+      <c r="O24" s="53"/>
+      <c r="P24" s="53"/>
+      <c r="Q24" s="53"/>
+      <c r="R24" s="53"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
@@ -1829,97 +2627,112 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>176</v>
+        <v>251</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>236</v>
+        <v>176</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -1932,24 +2745,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F877DB-31C0-454E-B308-416C9ACF593D}">
   <dimension ref="A3:EZ152"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="M92" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="N4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomRight" activeCell="V98" sqref="V98"/>
+      <selection pane="bottomRight" activeCell="W52" sqref="W52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8515625" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.8515625" style="4"/>
-    <col min="3" max="3" width="39.2109375" style="1" customWidth="1"/>
-    <col min="4" max="28" width="10.8515625" style="1"/>
-    <col min="29" max="29" width="10.8515625" style="4"/>
-    <col min="30" max="40" width="10.8515625" style="1"/>
-    <col min="41" max="41" width="14.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="13.31640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="16384" width="10.8515625" style="1"/>
+    <col min="2" max="2" width="10.83203125" style="4"/>
+    <col min="3" max="3" width="39.1640625" style="1" customWidth="1"/>
+    <col min="4" max="28" width="10.83203125" style="1"/>
+    <col min="29" max="29" width="10.83203125" style="4"/>
+    <col min="30" max="40" width="10.83203125" style="1"/>
+    <col min="41" max="41" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:39" x14ac:dyDescent="0.25">
@@ -5528,7 +6341,7 @@
       <c r="AO33" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="AP33" s="53">
+      <c r="AP33" s="49">
         <v>0.08</v>
       </c>
     </row>
@@ -5657,7 +6470,7 @@
       <c r="AO34" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="AP34" s="53">
+      <c r="AP34" s="49">
         <v>-0.01</v>
       </c>
     </row>
@@ -5799,10 +6612,10 @@
         <f t="shared" si="52"/>
         <v>0.9267571701939944</v>
       </c>
-      <c r="AO35" s="52" t="s">
+      <c r="AO35" s="48" t="s">
         <v>217</v>
       </c>
-      <c r="AP35" s="54">
+      <c r="AP35" s="50">
         <f>NPV(AP33,AC30:EZ30)</f>
         <v>80025.29745694359</v>
       </c>
@@ -6093,7 +6906,7 @@
       <c r="AO37" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="AP37" s="55">
+      <c r="AP37" s="51">
         <f>AP35/AP36</f>
         <v>375.70562186358495</v>
       </c>
@@ -6165,7 +6978,7 @@
       <c r="AO38" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="AP38" s="47">
+      <c r="AP38" s="46">
         <f>(AP37-B4)/B4</f>
         <v>0.42853848617332679</v>
       </c>
@@ -9980,10 +10793,7 @@
         <v>4</v>
       </c>
       <c r="S104" s="15"/>
-      <c r="U104" s="15">
-        <f>P104+Q104+Q105</f>
-        <v>-7429</v>
-      </c>
+      <c r="U104" s="15"/>
       <c r="W104" s="15">
         <v>-1069</v>
       </c>
@@ -10054,10 +10864,6 @@
         <v>0</v>
       </c>
       <c r="S105" s="15"/>
-      <c r="U105" s="1">
-        <f>U104/B6</f>
-        <v>-0.1326157196665417</v>
-      </c>
       <c r="W105" s="15">
         <v>-477</v>
       </c>
@@ -10709,323 +11515,354 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55B37E73-D66F-CD46-BE03-0F584F4CABDA}">
-  <dimension ref="B5:I31"/>
+  <dimension ref="A5:I79"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8515625" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.8515625" style="1"/>
-    <col min="2" max="2" width="23.55078125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.27734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.11328125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.04296875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.82421875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.27734375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.0546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.66015625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.8515625" style="1"/>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="23.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="54" t="s">
         <v>177</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="54" t="s">
         <v>191</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="54" t="s">
         <v>192</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="54" t="s">
         <v>193</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="54" t="s">
         <v>194</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="54" t="s">
         <v>195</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="54" t="s">
         <v>196</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="54" t="s">
         <v>197</v>
       </c>
     </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+    </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="54" t="s">
         <v>178</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="49">
+      <c r="C7" s="54"/>
+      <c r="D7" s="55">
         <f>SUM(D8:D12)</f>
         <v>332.07798165137609</v>
       </c>
-      <c r="E7" s="48">
+      <c r="E7" s="56">
         <f>SUM(E8:E12)</f>
         <v>72.393000000000001</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="57">
         <v>0.99</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="54">
         <f>SUM(G8:G12)</f>
         <v>72.800000000000011</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="54">
         <f>SUM(H8:H12)</f>
         <v>3.7800000000000002</v>
       </c>
-      <c r="I7" s="46" t="s">
+      <c r="I7" s="58" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="58" t="s">
+      <c r="C8" s="67" t="s">
         <v>200</v>
       </c>
-      <c r="D8" s="50">
+      <c r="D8" s="59">
         <f t="shared" ref="D8:D12" si="0">(E8*1000)/$E$30</f>
         <v>184.8302752293578</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="60">
         <f>G8*F8</f>
         <v>40.292999999999999</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="61">
         <v>0.99</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="53">
         <f>2.2*18.5</f>
         <v>40.700000000000003</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="53">
         <v>2.2000000000000002</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="I8" s="62" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="58"/>
-      <c r="D9" s="50">
+      <c r="C9" s="67"/>
+      <c r="D9" s="59">
         <f t="shared" si="0"/>
         <v>94.357798165137609</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="60">
         <f t="shared" ref="E9:E12" si="1">G9*F9</f>
         <v>20.57</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="61">
         <v>1</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="53">
         <f>1.1*18.7</f>
         <v>20.57</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="53">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I9" s="14" t="s">
+      <c r="I9" s="62" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="58"/>
-      <c r="D10" s="50">
+      <c r="C10" s="67"/>
+      <c r="D10" s="59">
         <f t="shared" si="0"/>
         <v>51.743119266055054</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="60">
         <f t="shared" si="1"/>
         <v>11.280000000000001</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="61">
         <v>1</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="53">
         <f>0.8*14.1</f>
         <v>11.280000000000001</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="53">
         <v>0.8</v>
       </c>
-      <c r="I10" s="14" t="s">
+      <c r="I10" s="62" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="58"/>
-      <c r="D11" s="50">
+      <c r="C11" s="67"/>
+      <c r="D11" s="59">
         <f t="shared" si="0"/>
         <v>14.220183486238533</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="60">
         <f t="shared" si="1"/>
         <v>3.1</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11" s="61">
         <v>1</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="53">
         <v>3.1</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="63">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="I11" s="14" t="s">
+      <c r="I11" s="62" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="53" t="s">
         <v>179</v>
       </c>
-      <c r="C12" s="58"/>
-      <c r="D12" s="50">
+      <c r="C12" s="67"/>
+      <c r="D12" s="59">
         <f t="shared" si="0"/>
         <v>-13.073394495412844</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="60">
         <f t="shared" si="1"/>
         <v>-2.85</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="61">
         <v>1</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="53">
         <f>-0.25*11.4</f>
         <v>-2.85</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="53">
         <v>-0.25</v>
       </c>
-      <c r="I12" s="14" t="s">
+      <c r="I12" s="62" t="s">
         <v>206</v>
       </c>
     </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="66"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+    </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="54" t="s">
         <v>180</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="54" t="s">
         <v>211</v>
       </c>
-      <c r="D14" s="49">
+      <c r="D14" s="55">
         <f>SUM(D15:D17)</f>
         <v>114.05504587155966</v>
       </c>
-      <c r="E14" s="48">
+      <c r="E14" s="56">
         <f>G14*F14</f>
         <v>24.864000000000001</v>
       </c>
-      <c r="F14" s="47">
+      <c r="F14" s="64">
         <v>0.14000000000000001</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="54">
         <f>SUM(G15:G17)</f>
         <v>177.6</v>
       </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="53" t="s">
         <v>181</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="53" t="s">
         <v>211</v>
       </c>
-      <c r="D15" s="50">
+      <c r="D15" s="59">
         <f>(E15*1000)/$E$30</f>
         <v>142.56880733944956</v>
       </c>
-      <c r="E15" s="8">
-        <f t="shared" ref="E15:E17" si="2">G15*F15</f>
+      <c r="E15" s="60">
+        <f>G15*F15</f>
         <v>31.080000000000002</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="65">
         <v>0.14000000000000001</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="53">
         <f>12*18.5</f>
         <v>222</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15" s="53">
         <v>12</v>
       </c>
-      <c r="I15" s="14" t="s">
+      <c r="I15" s="62" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="53" t="s">
         <v>182</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="53" t="s">
         <v>211</v>
       </c>
-      <c r="D16" s="50">
-        <f t="shared" ref="D16:D17" si="3">(E16*1000)/$E$30</f>
+      <c r="D16" s="59">
+        <f t="shared" ref="D16:D17" si="2">(E16*1000)/$E$30</f>
         <v>-32.366972477064223</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="60">
+        <f t="shared" ref="E15:E17" si="3">G16*F16</f>
+        <v>-7.056</v>
+      </c>
+      <c r="F16" s="65">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G16" s="53">
+        <v>-50.4</v>
+      </c>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="53" t="s">
+        <v>183</v>
+      </c>
+      <c r="C17" s="53" t="s">
+        <v>211</v>
+      </c>
+      <c r="D17" s="59">
         <f t="shared" si="2"/>
-        <v>-7.056</v>
-      </c>
-      <c r="F16" s="10">
+        <v>3.8532110091743124</v>
+      </c>
+      <c r="E17" s="60">
+        <f t="shared" si="3"/>
+        <v>0.84000000000000008</v>
+      </c>
+      <c r="F17" s="65">
         <v>0.14000000000000001</v>
       </c>
-      <c r="G16" s="1">
-        <v>-50.4</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D17" s="50">
-        <f t="shared" si="3"/>
-        <v>3.8532110091743124</v>
-      </c>
-      <c r="E17" s="8">
-        <f t="shared" si="2"/>
-        <v>0.84000000000000008</v>
-      </c>
-      <c r="F17" s="10">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="G17" s="1">
+      <c r="G17" s="53">
         <v>6</v>
       </c>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="66"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="66"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="54" t="s">
         <v>184</v>
       </c>
-      <c r="D19" s="49">
+      <c r="C19" s="53"/>
+      <c r="D19" s="55">
         <f>SUM(D20:D21)</f>
         <v>5.9633027522935782</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="54">
         <f>SUM(E20:E21)</f>
         <v>1.3</v>
       </c>
@@ -11035,127 +11872,304 @@
       <c r="I19" s="2"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="53" t="s">
         <v>210</v>
       </c>
-      <c r="D20" s="50">
+      <c r="D20" s="59">
         <f>(E20*1000)/$E$30</f>
         <v>3.669724770642202</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="53">
         <v>0.8</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="53" t="s">
         <v>185</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="53" t="s">
         <v>210</v>
       </c>
-      <c r="D21" s="50">
+      <c r="D21" s="59">
         <f>(E21*1000)/$E$30</f>
         <v>2.2935779816513762</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="53">
         <v>0.5</v>
       </c>
     </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="66"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="66"/>
+    </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="54" t="s">
         <v>186</v>
       </c>
-      <c r="D23" s="49">
+      <c r="C23" s="53"/>
+      <c r="D23" s="55">
         <f>D7+D14+D19</f>
         <v>452.09633027522938</v>
       </c>
-      <c r="E23" s="48">
+      <c r="E23" s="56">
         <f>E7+E14+E19</f>
         <v>98.557000000000002</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="53" t="s">
         <v>187</v>
       </c>
-      <c r="D24" s="50">
+      <c r="C24" s="53"/>
+      <c r="D24" s="59">
         <f>(E24*1000)/$E$30</f>
         <v>0.45871559633027525</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="53">
         <v>0.1</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="53" t="s">
         <v>188</v>
       </c>
-      <c r="D25" s="50">
+      <c r="C25" s="53"/>
+      <c r="D25" s="59">
         <f t="shared" ref="D25:D27" si="4">(E25*1000)/$E$30</f>
         <v>-2.7522935779816513</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="53">
         <v>-0.6</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="53" t="s">
         <v>189</v>
       </c>
-      <c r="D26" s="50">
+      <c r="C26" s="53"/>
+      <c r="D26" s="59">
         <f t="shared" si="4"/>
         <v>-1.834862385321101</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="53">
         <v>-0.4</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="53" t="s">
         <v>190</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="53" t="s">
         <v>210</v>
       </c>
-      <c r="D27" s="50">
+      <c r="D27" s="59">
         <f t="shared" si="4"/>
         <v>17.431192660550458</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="53">
         <v>3.8</v>
       </c>
     </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="66"/>
+      <c r="C28" s="66"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="66"/>
+    </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="54" t="s">
         <v>207</v>
       </c>
-      <c r="D29" s="49">
+      <c r="C29" s="53"/>
+      <c r="D29" s="55">
         <f>(E29*1000)/E30</f>
         <v>465.39908256880733</v>
       </c>
-      <c r="E29" s="48">
+      <c r="E29" s="56">
         <f>SUM(E23:E27)</f>
         <v>101.45699999999999</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="53" t="s">
         <v>209</v>
       </c>
-      <c r="E30" s="1">
+      <c r="C30" s="53"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="53">
         <v>218</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="54" t="s">
         <v>208</v>
       </c>
-      <c r="D31" s="49">
+      <c r="C31" s="53"/>
+      <c r="D31" s="55">
         <f>D29</f>
         <v>465.39908256880733</v>
+      </c>
+      <c r="E31" s="53"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="68" t="s">
+        <v>52</v>
+      </c>
+      <c r="B60" s="70">
+        <f>D8</f>
+        <v>184.8302752293578</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="68" t="s">
+        <v>53</v>
+      </c>
+      <c r="B61" s="70">
+        <f>D9</f>
+        <v>94.357798165137609</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="68" t="s">
+        <v>54</v>
+      </c>
+      <c r="B62" s="70">
+        <f>D10</f>
+        <v>51.743119266055054</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="68" t="s">
+        <v>55</v>
+      </c>
+      <c r="B63" s="70">
+        <f>D11</f>
+        <v>14.220183486238533</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="68" t="s">
+        <v>179</v>
+      </c>
+      <c r="B64" s="70">
+        <f>D12</f>
+        <v>-13.073394495412844</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="69" t="s">
+        <v>178</v>
+      </c>
+      <c r="B65" s="71">
+        <f>SUM(B60:B64)</f>
+        <v>332.07798165137609</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="68"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="69" t="s">
+        <v>180</v>
+      </c>
+      <c r="B67" s="70">
+        <f>D14</f>
+        <v>114.05504587155966</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="68"/>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="B69" s="70">
+        <f>D20</f>
+        <v>3.669724770642202</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="68" t="s">
+        <v>185</v>
+      </c>
+      <c r="B70" s="70">
+        <f>D21</f>
+        <v>2.2935779816513762</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="69" t="s">
+        <v>184</v>
+      </c>
+      <c r="B71" s="70">
+        <f>SUM(B69:B70)</f>
+        <v>5.9633027522935782</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="68"/>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="69" t="s">
+        <v>186</v>
+      </c>
+      <c r="B73" s="70">
+        <f>B65+B67+B71</f>
+        <v>452.09633027522938</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="68" t="s">
+        <v>187</v>
+      </c>
+      <c r="B74" s="70">
+        <f>D24</f>
+        <v>0.45871559633027525</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="68" t="s">
+        <v>188</v>
+      </c>
+      <c r="B75" s="70">
+        <f>D25</f>
+        <v>-2.7522935779816513</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="68" t="s">
+        <v>189</v>
+      </c>
+      <c r="B76" s="70">
+        <f>D26</f>
+        <v>-1.834862385321101</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="68" t="s">
+        <v>190</v>
+      </c>
+      <c r="B77" s="70">
+        <f>D27</f>
+        <v>17.431192660550458</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="68"/>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="69" t="s">
+        <v>207</v>
+      </c>
+      <c r="B79" s="70">
+        <f>SUM(B73:B77)</f>
+        <v>465.39908256880727</v>
       </c>
     </row>
   </sheetData>
@@ -11163,6 +12177,7 @@
     <mergeCell ref="C8:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11171,27 +12186,27 @@
   <dimension ref="B4:X62"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="J14" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomRight" activeCell="X8" sqref="X8"/>
+      <selection pane="bottomRight" activeCell="Y51" sqref="Y51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8515625" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.80859375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.15234375" style="1" customWidth="1"/>
-    <col min="3" max="6" width="10.8515625" style="1"/>
-    <col min="7" max="7" width="10.97265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="10.8515625" style="1"/>
-    <col min="12" max="12" width="10.97265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="10.8515625" style="1"/>
-    <col min="17" max="17" width="10.97265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.20703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="10.8515625" style="1"/>
-    <col min="22" max="22" width="12.20703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="10.8515625" style="1"/>
+    <col min="1" max="1" width="4.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.1640625" style="1" customWidth="1"/>
+    <col min="3" max="6" width="10.83203125" style="1"/>
+    <col min="7" max="7" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="10.83203125" style="1"/>
+    <col min="12" max="12" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="10.83203125" style="1"/>
+    <col min="17" max="17" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="10.83203125" style="1"/>
+    <col min="22" max="22" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:24" x14ac:dyDescent="0.25">
@@ -14729,13 +15744,13 @@
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8515625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="39.70703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="18.6171875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:7" ht="61.5" x14ac:dyDescent="0.85">
+    <row r="4" spans="3:7" ht="62" x14ac:dyDescent="0.7">
       <c r="C4" s="17"/>
       <c r="D4" s="17">
         <v>2025</v>
@@ -14750,65 +15765,65 @@
         <v>2028</v>
       </c>
     </row>
-    <row r="5" spans="3:7" ht="61.5" x14ac:dyDescent="0.85">
+    <row r="5" spans="3:7" ht="62" x14ac:dyDescent="0.7">
       <c r="C5" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="D5" s="51">
+      <c r="D5" s="47">
         <f>Modell!$B$9/Modell!AC17</f>
         <v>28.992757371960682</v>
       </c>
-      <c r="E5" s="51">
+      <c r="E5" s="47">
         <f>Modell!$B$9/Modell!AD17</f>
         <v>21.402221068067941</v>
       </c>
-      <c r="F5" s="51">
+      <c r="F5" s="47">
         <f>Modell!$B$9/Modell!AE17</f>
         <v>16.748159653894678</v>
       </c>
-      <c r="G5" s="51">
+      <c r="G5" s="47">
         <f>Modell!$B$9/Modell!AF17</f>
         <v>13.016422733908</v>
       </c>
     </row>
-    <row r="6" spans="3:7" ht="61.5" x14ac:dyDescent="0.85">
+    <row r="6" spans="3:7" ht="62" x14ac:dyDescent="0.7">
       <c r="C6" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="D6" s="51">
+      <c r="D6" s="47">
         <f>Modell!$B$9/Modell!AC22</f>
         <v>38.306903622693099</v>
       </c>
-      <c r="E6" s="51">
+      <c r="E6" s="47">
         <f>Modell!$B$9/Modell!AD22</f>
         <v>26.083981829690579</v>
       </c>
-      <c r="F6" s="51">
+      <c r="F6" s="47">
         <f>Modell!$B$9/Modell!AE22</f>
         <v>19.484959834760812</v>
       </c>
-      <c r="G6" s="51">
+      <c r="G6" s="47">
         <f>Modell!$B$9/Modell!AF22</f>
         <v>14.774359677306037</v>
       </c>
     </row>
-    <row r="7" spans="3:7" ht="61.5" x14ac:dyDescent="0.85">
+    <row r="7" spans="3:7" ht="62" x14ac:dyDescent="0.7">
       <c r="C7" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="D7" s="51">
+      <c r="D7" s="47">
         <f>Modell!$B$4/Modell!AC31</f>
         <v>27.175529615218331</v>
       </c>
-      <c r="E7" s="51">
+      <c r="E7" s="47">
         <f>Modell!$B$4/Modell!AD31</f>
         <v>33.426681483984972</v>
       </c>
-      <c r="F7" s="51">
+      <c r="F7" s="47">
         <f>Modell!$B$4/Modell!AE31</f>
         <v>24.970019929373507</v>
       </c>
-      <c r="G7" s="51">
+      <c r="G7" s="47">
         <f>Modell!$B$4/Modell!AF31</f>
         <v>18.933375214247278</v>
       </c>
@@ -14823,2347 +15838,675 @@
   <dimension ref="A3:EO31"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="I7" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomRight" activeCell="T32" sqref="T32"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8515625" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.8515625" style="1"/>
-    <col min="2" max="2" width="10.8515625" style="4"/>
-    <col min="3" max="3" width="31.44140625" style="1" customWidth="1"/>
-    <col min="4" max="21" width="10.8515625" style="1"/>
-    <col min="22" max="22" width="14.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.31640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="10.8515625" style="1"/>
+    <col min="1" max="2" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="17" style="1" customWidth="1"/>
+    <col min="4" max="21" width="10.83203125" style="1"/>
+    <col min="22" max="22" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="N3" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="O3" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="P3" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q3" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="R3" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="S3" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="T3" s="14" t="s">
-        <v>31</v>
-      </c>
+      <c r="A3" s="2"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="16">
-        <v>12653</v>
-      </c>
-      <c r="E4" s="16">
-        <v>12908</v>
-      </c>
-      <c r="F4" s="16">
-        <v>14623</v>
-      </c>
-      <c r="G4" s="16">
-        <v>15272</v>
-      </c>
-      <c r="H4" s="16">
-        <v>7617</v>
-      </c>
-      <c r="I4" s="16">
-        <v>8325</v>
-      </c>
-      <c r="J4" s="12">
-        <f>I4*0.76</f>
-        <v>6327</v>
-      </c>
-      <c r="K4" s="16">
-        <f>J4</f>
-        <v>6327</v>
-      </c>
-      <c r="L4" s="16">
-        <f t="shared" ref="L4:T4" si="0">K4</f>
-        <v>6327</v>
-      </c>
-      <c r="M4" s="16">
-        <f t="shared" si="0"/>
-        <v>6327</v>
-      </c>
-      <c r="N4" s="16">
-        <f t="shared" si="0"/>
-        <v>6327</v>
-      </c>
-      <c r="O4" s="16">
-        <f t="shared" si="0"/>
-        <v>6327</v>
-      </c>
-      <c r="P4" s="16">
-        <f t="shared" si="0"/>
-        <v>6327</v>
-      </c>
-      <c r="Q4" s="16">
-        <f t="shared" si="0"/>
-        <v>6327</v>
-      </c>
-      <c r="R4" s="16">
-        <f t="shared" si="0"/>
-        <v>6327</v>
-      </c>
-      <c r="S4" s="16">
-        <f t="shared" si="0"/>
-        <v>6327</v>
-      </c>
-      <c r="T4" s="16">
-        <f t="shared" si="0"/>
-        <v>6327</v>
-      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="15">
-        <v>-416</v>
-      </c>
-      <c r="E5" s="15">
-        <v>-454</v>
-      </c>
-      <c r="F5" s="15">
-        <v>-531</v>
-      </c>
-      <c r="G5" s="15">
-        <v>-549</v>
-      </c>
-      <c r="H5" s="15">
-        <v>-493</v>
-      </c>
-      <c r="I5" s="15">
-        <v>-599</v>
-      </c>
-      <c r="J5" s="11">
-        <v>-614</v>
-      </c>
-      <c r="K5" s="15">
-        <f>J5*1</f>
-        <v>-614</v>
-      </c>
-      <c r="L5" s="15">
-        <f t="shared" ref="L5:T5" si="1">K5*1</f>
-        <v>-614</v>
-      </c>
-      <c r="M5" s="15">
-        <f t="shared" si="1"/>
-        <v>-614</v>
-      </c>
-      <c r="N5" s="15">
-        <f t="shared" si="1"/>
-        <v>-614</v>
-      </c>
-      <c r="O5" s="15">
-        <f t="shared" si="1"/>
-        <v>-614</v>
-      </c>
-      <c r="P5" s="15">
-        <f t="shared" si="1"/>
-        <v>-614</v>
-      </c>
-      <c r="Q5" s="15">
-        <f t="shared" si="1"/>
-        <v>-614</v>
-      </c>
-      <c r="R5" s="15">
-        <f t="shared" si="1"/>
-        <v>-614</v>
-      </c>
-      <c r="S5" s="15">
-        <f t="shared" si="1"/>
-        <v>-614</v>
-      </c>
-      <c r="T5" s="15">
-        <f t="shared" si="1"/>
-        <v>-614</v>
-      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C6" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D6" s="15">
-        <f t="shared" ref="D6:T6" si="2">SUM(D4:D5)</f>
-        <v>12237</v>
-      </c>
-      <c r="E6" s="15">
-        <f t="shared" si="2"/>
-        <v>12454</v>
-      </c>
-      <c r="F6" s="15">
-        <f t="shared" si="2"/>
-        <v>14092</v>
-      </c>
-      <c r="G6" s="15">
-        <f t="shared" si="2"/>
-        <v>14723</v>
-      </c>
-      <c r="H6" s="15">
-        <f t="shared" si="2"/>
-        <v>7124</v>
-      </c>
-      <c r="I6" s="15">
-        <f t="shared" si="2"/>
-        <v>7726</v>
-      </c>
-      <c r="J6" s="11">
-        <f t="shared" si="2"/>
-        <v>5713</v>
-      </c>
-      <c r="K6" s="15">
-        <f t="shared" si="2"/>
-        <v>5713</v>
-      </c>
-      <c r="L6" s="15">
-        <f t="shared" si="2"/>
-        <v>5713</v>
-      </c>
-      <c r="M6" s="15">
-        <f t="shared" si="2"/>
-        <v>5713</v>
-      </c>
-      <c r="N6" s="15">
-        <f t="shared" si="2"/>
-        <v>5713</v>
-      </c>
-      <c r="O6" s="15">
-        <f t="shared" si="2"/>
-        <v>5713</v>
-      </c>
-      <c r="P6" s="15">
-        <f t="shared" si="2"/>
-        <v>5713</v>
-      </c>
-      <c r="Q6" s="15">
-        <f t="shared" si="2"/>
-        <v>5713</v>
-      </c>
-      <c r="R6" s="15">
-        <f t="shared" si="2"/>
-        <v>5713</v>
-      </c>
-      <c r="S6" s="15">
-        <f t="shared" si="2"/>
-        <v>5713</v>
-      </c>
-      <c r="T6" s="15">
-        <f t="shared" si="2"/>
-        <v>5713</v>
-      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="15">
-        <v>-4793</v>
-      </c>
-      <c r="E7" s="15">
-        <v>-4905</v>
-      </c>
-      <c r="F7" s="15">
-        <v>-5486</v>
-      </c>
-      <c r="G7" s="15">
-        <v>-5929</v>
-      </c>
-      <c r="H7" s="15">
-        <v>-2669</v>
-      </c>
-      <c r="I7" s="15">
-        <v>-2859</v>
-      </c>
-      <c r="J7" s="11">
-        <v>-2350</v>
-      </c>
-      <c r="K7" s="15">
-        <f>J7</f>
-        <v>-2350</v>
-      </c>
-      <c r="L7" s="15">
-        <f>K7*1</f>
-        <v>-2350</v>
-      </c>
-      <c r="M7" s="15">
-        <f t="shared" ref="M7:T7" si="3">L7*1</f>
-        <v>-2350</v>
-      </c>
-      <c r="N7" s="15">
-        <f t="shared" si="3"/>
-        <v>-2350</v>
-      </c>
-      <c r="O7" s="15">
-        <f t="shared" si="3"/>
-        <v>-2350</v>
-      </c>
-      <c r="P7" s="15">
-        <f t="shared" si="3"/>
-        <v>-2350</v>
-      </c>
-      <c r="Q7" s="15">
-        <f t="shared" si="3"/>
-        <v>-2350</v>
-      </c>
-      <c r="R7" s="15">
-        <f t="shared" si="3"/>
-        <v>-2350</v>
-      </c>
-      <c r="S7" s="15">
-        <f t="shared" si="3"/>
-        <v>-2350</v>
-      </c>
-      <c r="T7" s="15">
-        <f t="shared" si="3"/>
-        <v>-2350</v>
-      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="15">
-        <v>-5467</v>
-      </c>
-      <c r="E8" s="15">
-        <v>-5422</v>
-      </c>
-      <c r="F8" s="15">
-        <v>-5865</v>
-      </c>
-      <c r="G8" s="15">
-        <v>-6387</v>
-      </c>
-      <c r="H8" s="15">
-        <v>-447</v>
-      </c>
-      <c r="I8" s="15">
-        <v>-513</v>
-      </c>
-      <c r="J8" s="11">
-        <v>-430</v>
-      </c>
-      <c r="K8" s="15">
-        <f t="shared" ref="K8:K9" si="4">J8</f>
-        <v>-430</v>
-      </c>
-      <c r="L8" s="15">
-        <f t="shared" ref="L8:T9" si="5">K8*1</f>
-        <v>-430</v>
-      </c>
-      <c r="M8" s="15">
-        <f t="shared" si="5"/>
-        <v>-430</v>
-      </c>
-      <c r="N8" s="15">
-        <f t="shared" si="5"/>
-        <v>-430</v>
-      </c>
-      <c r="O8" s="15">
-        <f t="shared" si="5"/>
-        <v>-430</v>
-      </c>
-      <c r="P8" s="15">
-        <f t="shared" si="5"/>
-        <v>-430</v>
-      </c>
-      <c r="Q8" s="15">
-        <f t="shared" si="5"/>
-        <v>-430</v>
-      </c>
-      <c r="R8" s="15">
-        <f t="shared" si="5"/>
-        <v>-430</v>
-      </c>
-      <c r="S8" s="15">
-        <f t="shared" si="5"/>
-        <v>-430</v>
-      </c>
-      <c r="T8" s="15">
-        <f t="shared" si="5"/>
-        <v>-430</v>
-      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="15">
-        <v>0</v>
-      </c>
-      <c r="E9" s="15">
-        <v>0</v>
-      </c>
-      <c r="F9" s="15">
-        <v>0</v>
-      </c>
-      <c r="G9" s="15">
-        <v>0</v>
-      </c>
-      <c r="H9" s="15">
-        <v>-2419</v>
-      </c>
-      <c r="I9" s="15">
-        <v>-2657</v>
-      </c>
-      <c r="J9" s="11">
-        <v>-1000</v>
-      </c>
-      <c r="K9" s="15">
-        <f t="shared" si="4"/>
-        <v>-1000</v>
-      </c>
-      <c r="L9" s="15">
-        <f t="shared" si="5"/>
-        <v>-1000</v>
-      </c>
-      <c r="M9" s="15">
-        <f t="shared" si="5"/>
-        <v>-1000</v>
-      </c>
-      <c r="N9" s="15">
-        <f t="shared" si="5"/>
-        <v>-1000</v>
-      </c>
-      <c r="O9" s="15">
-        <f t="shared" si="5"/>
-        <v>-1000</v>
-      </c>
-      <c r="P9" s="15">
-        <f t="shared" si="5"/>
-        <v>-1000</v>
-      </c>
-      <c r="Q9" s="15">
-        <f t="shared" si="5"/>
-        <v>-1000</v>
-      </c>
-      <c r="R9" s="15">
-        <f t="shared" si="5"/>
-        <v>-1000</v>
-      </c>
-      <c r="S9" s="15">
-        <f t="shared" si="5"/>
-        <v>-1000</v>
-      </c>
-      <c r="T9" s="15">
-        <f t="shared" si="5"/>
-        <v>-1000</v>
-      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C10" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D10" s="16">
-        <f t="shared" ref="D10:T10" si="6">SUM(D6:D9)</f>
-        <v>1977</v>
-      </c>
-      <c r="E10" s="16">
-        <f t="shared" si="6"/>
-        <v>2127</v>
-      </c>
-      <c r="F10" s="16">
-        <f t="shared" si="6"/>
-        <v>2741</v>
-      </c>
-      <c r="G10" s="16">
-        <f t="shared" si="6"/>
-        <v>2407</v>
-      </c>
-      <c r="H10" s="16">
-        <f t="shared" si="6"/>
-        <v>1589</v>
-      </c>
-      <c r="I10" s="16">
-        <f t="shared" si="6"/>
-        <v>1697</v>
-      </c>
-      <c r="J10" s="12">
-        <f t="shared" si="6"/>
-        <v>1933</v>
-      </c>
-      <c r="K10" s="16">
-        <f t="shared" si="6"/>
-        <v>1933</v>
-      </c>
-      <c r="L10" s="16">
-        <f t="shared" si="6"/>
-        <v>1933</v>
-      </c>
-      <c r="M10" s="16">
-        <f t="shared" si="6"/>
-        <v>1933</v>
-      </c>
-      <c r="N10" s="16">
-        <f t="shared" si="6"/>
-        <v>1933</v>
-      </c>
-      <c r="O10" s="16">
-        <f t="shared" si="6"/>
-        <v>1933</v>
-      </c>
-      <c r="P10" s="16">
-        <f t="shared" si="6"/>
-        <v>1933</v>
-      </c>
-      <c r="Q10" s="16">
-        <f t="shared" si="6"/>
-        <v>1933</v>
-      </c>
-      <c r="R10" s="16">
-        <f t="shared" si="6"/>
-        <v>1933</v>
-      </c>
-      <c r="S10" s="16">
-        <f t="shared" si="6"/>
-        <v>1933</v>
-      </c>
-      <c r="T10" s="16">
-        <f t="shared" si="6"/>
-        <v>1933</v>
-      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="16"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="15">
-        <v>-813</v>
-      </c>
-      <c r="E11" s="15">
-        <v>-829</v>
-      </c>
-      <c r="F11" s="15">
-        <v>-984</v>
-      </c>
-      <c r="G11" s="15">
-        <v>-1117</v>
-      </c>
-      <c r="H11" s="15">
-        <v>-607</v>
-      </c>
-      <c r="I11" s="15">
-        <v>-702</v>
-      </c>
-      <c r="J11" s="11">
-        <v>-450</v>
-      </c>
-      <c r="K11" s="15">
-        <f>J11</f>
-        <v>-450</v>
-      </c>
-      <c r="L11" s="15">
-        <f>K11*1</f>
-        <v>-450</v>
-      </c>
-      <c r="M11" s="15">
-        <f>L11*1</f>
-        <v>-450</v>
-      </c>
-      <c r="N11" s="15">
-        <f t="shared" ref="N11:T11" si="7">M11*1</f>
-        <v>-450</v>
-      </c>
-      <c r="O11" s="15">
-        <f t="shared" si="7"/>
-        <v>-450</v>
-      </c>
-      <c r="P11" s="15">
-        <f t="shared" si="7"/>
-        <v>-450</v>
-      </c>
-      <c r="Q11" s="15">
-        <f t="shared" si="7"/>
-        <v>-450</v>
-      </c>
-      <c r="R11" s="15">
-        <f t="shared" si="7"/>
-        <v>-450</v>
-      </c>
-      <c r="S11" s="15">
-        <f t="shared" si="7"/>
-        <v>-450</v>
-      </c>
-      <c r="T11" s="15">
-        <f t="shared" si="7"/>
-        <v>-450</v>
-      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="15">
-        <v>-35</v>
-      </c>
-      <c r="E12" s="15">
-        <v>-61</v>
-      </c>
-      <c r="F12" s="15">
-        <v>-119</v>
-      </c>
-      <c r="G12" s="15">
-        <v>-31</v>
-      </c>
-      <c r="H12" s="15">
-        <v>-38</v>
-      </c>
-      <c r="I12" s="15">
-        <v>-1337</v>
-      </c>
-      <c r="J12" s="11">
-        <v>-20</v>
-      </c>
-      <c r="K12" s="15">
-        <f t="shared" ref="K12:K14" si="8">J12</f>
-        <v>-20</v>
-      </c>
-      <c r="L12" s="15">
-        <f t="shared" ref="L12:M14" si="9">K12*1</f>
-        <v>-20</v>
-      </c>
-      <c r="M12" s="15">
-        <f t="shared" si="9"/>
-        <v>-20</v>
-      </c>
-      <c r="N12" s="15">
-        <f t="shared" ref="N12:T12" si="10">M12*1</f>
-        <v>-20</v>
-      </c>
-      <c r="O12" s="15">
-        <f t="shared" si="10"/>
-        <v>-20</v>
-      </c>
-      <c r="P12" s="15">
-        <f t="shared" si="10"/>
-        <v>-20</v>
-      </c>
-      <c r="Q12" s="15">
-        <f t="shared" si="10"/>
-        <v>-20</v>
-      </c>
-      <c r="R12" s="15">
-        <f t="shared" si="10"/>
-        <v>-20</v>
-      </c>
-      <c r="S12" s="15">
-        <f t="shared" si="10"/>
-        <v>-20</v>
-      </c>
-      <c r="T12" s="15">
-        <f t="shared" si="10"/>
-        <v>-20</v>
-      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="15">
-        <v>11</v>
-      </c>
-      <c r="E13" s="15">
-        <v>146</v>
-      </c>
-      <c r="F13" s="15">
-        <v>181</v>
-      </c>
-      <c r="G13" s="15">
-        <v>13</v>
-      </c>
-      <c r="H13" s="15">
-        <v>55</v>
-      </c>
-      <c r="I13" s="15">
-        <v>9</v>
-      </c>
-      <c r="J13" s="11">
-        <v>300</v>
-      </c>
-      <c r="K13" s="15">
-        <f t="shared" si="8"/>
-        <v>300</v>
-      </c>
-      <c r="L13" s="15">
-        <f t="shared" si="9"/>
-        <v>300</v>
-      </c>
-      <c r="M13" s="15">
-        <f t="shared" si="9"/>
-        <v>300</v>
-      </c>
-      <c r="N13" s="15">
-        <f t="shared" ref="N13:T13" si="11">M13*1</f>
-        <v>300</v>
-      </c>
-      <c r="O13" s="15">
-        <f t="shared" si="11"/>
-        <v>300</v>
-      </c>
-      <c r="P13" s="15">
-        <f t="shared" si="11"/>
-        <v>300</v>
-      </c>
-      <c r="Q13" s="15">
-        <f t="shared" si="11"/>
-        <v>300</v>
-      </c>
-      <c r="R13" s="15">
-        <f t="shared" si="11"/>
-        <v>300</v>
-      </c>
-      <c r="S13" s="15">
-        <f t="shared" si="11"/>
-        <v>300</v>
-      </c>
-      <c r="T13" s="15">
-        <f t="shared" si="11"/>
-        <v>300</v>
-      </c>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="15">
-        <f>-162-58</f>
-        <v>-220</v>
-      </c>
-      <c r="E14" s="15">
-        <f>-237-44</f>
-        <v>-281</v>
-      </c>
-      <c r="F14" s="15">
-        <v>-172</v>
-      </c>
-      <c r="G14" s="15">
-        <v>-173</v>
-      </c>
-      <c r="H14" s="15">
-        <v>-111</v>
-      </c>
-      <c r="I14" s="15">
-        <v>-518</v>
-      </c>
-      <c r="J14" s="11">
-        <v>-300</v>
-      </c>
-      <c r="K14" s="15">
-        <f t="shared" si="8"/>
-        <v>-300</v>
-      </c>
-      <c r="L14" s="15">
-        <f t="shared" si="9"/>
-        <v>-300</v>
-      </c>
-      <c r="M14" s="15">
-        <f t="shared" si="9"/>
-        <v>-300</v>
-      </c>
-      <c r="N14" s="15">
-        <f t="shared" ref="N14:T14" si="12">M14*1</f>
-        <v>-300</v>
-      </c>
-      <c r="O14" s="15">
-        <f t="shared" si="12"/>
-        <v>-300</v>
-      </c>
-      <c r="P14" s="15">
-        <f t="shared" si="12"/>
-        <v>-300</v>
-      </c>
-      <c r="Q14" s="15">
-        <f t="shared" si="12"/>
-        <v>-300</v>
-      </c>
-      <c r="R14" s="15">
-        <f t="shared" si="12"/>
-        <v>-300</v>
-      </c>
-      <c r="S14" s="15">
-        <f t="shared" si="12"/>
-        <v>-300</v>
-      </c>
-      <c r="T14" s="15">
-        <f t="shared" si="12"/>
-        <v>-300</v>
-      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="15"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C15" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="D15" s="16">
-        <f t="shared" ref="D15:T15" si="13">SUM(D10:D14)</f>
-        <v>920</v>
-      </c>
-      <c r="E15" s="16">
-        <f t="shared" si="13"/>
-        <v>1102</v>
-      </c>
-      <c r="F15" s="16">
-        <f t="shared" si="13"/>
-        <v>1647</v>
-      </c>
-      <c r="G15" s="16">
-        <f t="shared" si="13"/>
-        <v>1099</v>
-      </c>
-      <c r="H15" s="16">
-        <f t="shared" si="13"/>
-        <v>888</v>
-      </c>
-      <c r="I15" s="16">
-        <f t="shared" si="13"/>
-        <v>-851</v>
-      </c>
-      <c r="J15" s="12">
-        <f t="shared" si="13"/>
-        <v>1463</v>
-      </c>
-      <c r="K15" s="16">
-        <f t="shared" si="13"/>
-        <v>1463</v>
-      </c>
-      <c r="L15" s="16">
-        <f t="shared" si="13"/>
-        <v>1463</v>
-      </c>
-      <c r="M15" s="16">
-        <f t="shared" si="13"/>
-        <v>1463</v>
-      </c>
-      <c r="N15" s="16">
-        <f t="shared" si="13"/>
-        <v>1463</v>
-      </c>
-      <c r="O15" s="16">
-        <f t="shared" si="13"/>
-        <v>1463</v>
-      </c>
-      <c r="P15" s="16">
-        <f t="shared" si="13"/>
-        <v>1463</v>
-      </c>
-      <c r="Q15" s="16">
-        <f t="shared" si="13"/>
-        <v>1463</v>
-      </c>
-      <c r="R15" s="16">
-        <f t="shared" si="13"/>
-        <v>1463</v>
-      </c>
-      <c r="S15" s="16">
-        <f t="shared" si="13"/>
-        <v>1463</v>
-      </c>
-      <c r="T15" s="16">
-        <f t="shared" si="13"/>
-        <v>1463</v>
-      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="16"/>
+      <c r="S15" s="16"/>
+      <c r="T15" s="16"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C16" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="15">
-        <v>89</v>
-      </c>
-      <c r="E16" s="15">
-        <v>37</v>
-      </c>
-      <c r="F16" s="15">
-        <v>-193</v>
-      </c>
-      <c r="G16" s="15">
-        <v>-482</v>
-      </c>
-      <c r="H16" s="15">
-        <v>-70</v>
-      </c>
-      <c r="I16" s="15">
-        <v>-83</v>
-      </c>
-      <c r="J16" s="11">
-        <v>0</v>
-      </c>
-      <c r="K16" s="15">
-        <v>0</v>
-      </c>
-      <c r="L16" s="15">
-        <v>0</v>
-      </c>
-      <c r="M16" s="15">
-        <v>0</v>
-      </c>
-      <c r="N16" s="15">
-        <v>0</v>
-      </c>
-      <c r="O16" s="15">
-        <v>0</v>
-      </c>
-      <c r="P16" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="15">
-        <v>0</v>
-      </c>
-      <c r="R16" s="15">
-        <v>0</v>
-      </c>
-      <c r="S16" s="15">
-        <v>0</v>
-      </c>
-      <c r="T16" s="15">
-        <v>0</v>
-      </c>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15"/>
+      <c r="S16" s="15"/>
+      <c r="T16" s="15"/>
     </row>
     <row r="17" spans="3:145" x14ac:dyDescent="0.25">
-      <c r="C17" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="15">
-        <v>-179</v>
-      </c>
-      <c r="E17" s="15">
-        <v>-197</v>
-      </c>
-      <c r="F17" s="15">
-        <v>-20000</v>
-      </c>
-      <c r="G17" s="15">
-        <v>-22823</v>
-      </c>
-      <c r="H17" s="15">
-        <v>-88</v>
-      </c>
-      <c r="I17" s="15">
-        <v>-127</v>
-      </c>
-      <c r="J17" s="11">
-        <v>0</v>
-      </c>
-      <c r="K17" s="15">
-        <v>0</v>
-      </c>
-      <c r="L17" s="15">
-        <v>0</v>
-      </c>
-      <c r="M17" s="15">
-        <v>0</v>
-      </c>
-      <c r="N17" s="15">
-        <v>0</v>
-      </c>
-      <c r="O17" s="15">
-        <v>0</v>
-      </c>
-      <c r="P17" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="15">
-        <v>0</v>
-      </c>
-      <c r="R17" s="15">
-        <v>0</v>
-      </c>
-      <c r="S17" s="15">
-        <v>0</v>
-      </c>
-      <c r="T17" s="15">
-        <v>0</v>
-      </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="15"/>
     </row>
     <row r="18" spans="3:145" x14ac:dyDescent="0.25">
-      <c r="C18" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="15">
-        <v>0</v>
-      </c>
-      <c r="E18" s="15">
-        <v>0</v>
-      </c>
-      <c r="F18" s="15">
-        <v>148</v>
-      </c>
-      <c r="G18" s="15">
-        <v>675</v>
-      </c>
-      <c r="H18" s="15">
-        <v>2</v>
-      </c>
-      <c r="I18" s="15">
-        <v>-10</v>
-      </c>
-      <c r="J18" s="11">
-        <v>0</v>
-      </c>
-      <c r="K18" s="15">
-        <v>0</v>
-      </c>
-      <c r="L18" s="15">
-        <v>0</v>
-      </c>
-      <c r="M18" s="15">
-        <v>0</v>
-      </c>
-      <c r="N18" s="15">
-        <v>0</v>
-      </c>
-      <c r="O18" s="15">
-        <v>0</v>
-      </c>
-      <c r="P18" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="15">
-        <v>0</v>
-      </c>
-      <c r="R18" s="15">
-        <v>0</v>
-      </c>
-      <c r="S18" s="15">
-        <v>0</v>
-      </c>
-      <c r="T18" s="15">
-        <v>0</v>
-      </c>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="15"/>
+      <c r="T18" s="15"/>
     </row>
     <row r="19" spans="3:145" x14ac:dyDescent="0.25">
-      <c r="C19" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="15">
-        <v>0</v>
-      </c>
-      <c r="E19" s="15">
-        <v>0</v>
-      </c>
-      <c r="F19" s="15">
-        <v>28</v>
-      </c>
-      <c r="G19" s="15">
-        <v>117</v>
-      </c>
-      <c r="H19" s="15">
-        <v>1729</v>
-      </c>
-      <c r="I19" s="15">
-        <v>6436</v>
-      </c>
-      <c r="J19" s="11">
-        <v>4850</v>
-      </c>
-      <c r="K19" s="15">
-        <v>0</v>
-      </c>
-      <c r="L19" s="15">
-        <v>0</v>
-      </c>
-      <c r="M19" s="15">
-        <v>0</v>
-      </c>
-      <c r="N19" s="15">
-        <v>0</v>
-      </c>
-      <c r="O19" s="15">
-        <v>0</v>
-      </c>
-      <c r="P19" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="15">
-        <v>0</v>
-      </c>
-      <c r="R19" s="15">
-        <v>0</v>
-      </c>
-      <c r="S19" s="15">
-        <v>0</v>
-      </c>
-      <c r="T19" s="15">
-        <v>0</v>
-      </c>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="15"/>
+      <c r="S19" s="15"/>
+      <c r="T19" s="15"/>
     </row>
     <row r="20" spans="3:145" x14ac:dyDescent="0.25">
-      <c r="C20" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" s="15">
-        <v>0</v>
-      </c>
-      <c r="E20" s="15">
-        <v>0</v>
-      </c>
-      <c r="F20" s="15">
-        <v>-248</v>
-      </c>
-      <c r="G20" s="15">
-        <v>-830</v>
-      </c>
-      <c r="H20" s="15">
-        <v>-622</v>
-      </c>
-      <c r="I20" s="15">
-        <v>-565</v>
-      </c>
-      <c r="J20" s="11">
-        <v>-3800</v>
-      </c>
-      <c r="K20" s="15">
-        <v>0</v>
-      </c>
-      <c r="L20" s="15">
-        <v>0</v>
-      </c>
-      <c r="M20" s="15">
-        <v>0</v>
-      </c>
-      <c r="N20" s="15">
-        <v>0</v>
-      </c>
-      <c r="O20" s="15">
-        <v>0</v>
-      </c>
-      <c r="P20" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="15">
-        <v>0</v>
-      </c>
-      <c r="R20" s="15">
-        <v>0</v>
-      </c>
-      <c r="S20" s="15">
-        <v>0</v>
-      </c>
-      <c r="T20" s="15">
-        <v>0</v>
-      </c>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="15"/>
+      <c r="S20" s="15"/>
+      <c r="T20" s="15"/>
     </row>
     <row r="21" spans="3:145" x14ac:dyDescent="0.25">
-      <c r="C21" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" s="15">
-        <f t="shared" ref="D21:T21" si="14">SUM(D15:D20)</f>
-        <v>830</v>
-      </c>
-      <c r="E21" s="15">
-        <f t="shared" si="14"/>
-        <v>942</v>
-      </c>
-      <c r="F21" s="15">
-        <f t="shared" si="14"/>
-        <v>-18618</v>
-      </c>
-      <c r="G21" s="15">
-        <f t="shared" si="14"/>
-        <v>-22244</v>
-      </c>
-      <c r="H21" s="15">
-        <f t="shared" si="14"/>
-        <v>1839</v>
-      </c>
-      <c r="I21" s="15">
-        <f t="shared" si="14"/>
-        <v>4800</v>
-      </c>
-      <c r="J21" s="11">
-        <f t="shared" si="14"/>
-        <v>2513</v>
-      </c>
-      <c r="K21" s="15">
-        <f t="shared" si="14"/>
-        <v>1463</v>
-      </c>
-      <c r="L21" s="15">
-        <f t="shared" si="14"/>
-        <v>1463</v>
-      </c>
-      <c r="M21" s="15">
-        <f t="shared" si="14"/>
-        <v>1463</v>
-      </c>
-      <c r="N21" s="15">
-        <f t="shared" si="14"/>
-        <v>1463</v>
-      </c>
-      <c r="O21" s="15">
-        <f t="shared" si="14"/>
-        <v>1463</v>
-      </c>
-      <c r="P21" s="15">
-        <f t="shared" si="14"/>
-        <v>1463</v>
-      </c>
-      <c r="Q21" s="15">
-        <f t="shared" si="14"/>
-        <v>1463</v>
-      </c>
-      <c r="R21" s="15">
-        <f t="shared" si="14"/>
-        <v>1463</v>
-      </c>
-      <c r="S21" s="15">
-        <f t="shared" si="14"/>
-        <v>1463</v>
-      </c>
-      <c r="T21" s="15">
-        <f t="shared" si="14"/>
-        <v>1463</v>
-      </c>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="15"/>
+      <c r="S21" s="15"/>
+      <c r="T21" s="15"/>
     </row>
     <row r="22" spans="3:145" x14ac:dyDescent="0.25">
-      <c r="C22" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D22" s="15">
-        <v>-275</v>
-      </c>
-      <c r="E22" s="15">
-        <v>128</v>
-      </c>
-      <c r="F22" s="15">
-        <v>-280</v>
-      </c>
-      <c r="G22" s="15">
-        <v>-254</v>
-      </c>
-      <c r="H22" s="15">
-        <v>-205</v>
-      </c>
-      <c r="I22" s="15">
-        <v>-149</v>
-      </c>
-      <c r="J22" s="11">
-        <v>-200</v>
-      </c>
-      <c r="K22" s="15">
-        <f>K21*-0.22</f>
-        <v>-321.86</v>
-      </c>
-      <c r="L22" s="15">
-        <f t="shared" ref="L22:T22" si="15">L21*-0.22</f>
-        <v>-321.86</v>
-      </c>
-      <c r="M22" s="15">
-        <f t="shared" si="15"/>
-        <v>-321.86</v>
-      </c>
-      <c r="N22" s="15">
-        <f t="shared" si="15"/>
-        <v>-321.86</v>
-      </c>
-      <c r="O22" s="15">
-        <f t="shared" si="15"/>
-        <v>-321.86</v>
-      </c>
-      <c r="P22" s="15">
-        <f t="shared" si="15"/>
-        <v>-321.86</v>
-      </c>
-      <c r="Q22" s="15">
-        <f t="shared" si="15"/>
-        <v>-321.86</v>
-      </c>
-      <c r="R22" s="15">
-        <f t="shared" si="15"/>
-        <v>-321.86</v>
-      </c>
-      <c r="S22" s="15">
-        <f t="shared" si="15"/>
-        <v>-321.86</v>
-      </c>
-      <c r="T22" s="15">
-        <f t="shared" si="15"/>
-        <v>-321.86</v>
-      </c>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="15"/>
+      <c r="T22" s="15"/>
     </row>
     <row r="23" spans="3:145" x14ac:dyDescent="0.25">
-      <c r="C23" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D23" s="16">
-        <f t="shared" ref="D23:T23" si="16">SUM(D21:D22)</f>
-        <v>555</v>
-      </c>
-      <c r="E23" s="16">
-        <f t="shared" si="16"/>
-        <v>1070</v>
-      </c>
-      <c r="F23" s="16">
-        <f t="shared" si="16"/>
-        <v>-18898</v>
-      </c>
-      <c r="G23" s="16">
-        <f t="shared" si="16"/>
-        <v>-22498</v>
-      </c>
-      <c r="H23" s="16">
-        <f t="shared" si="16"/>
-        <v>1634</v>
-      </c>
-      <c r="I23" s="16">
-        <f t="shared" si="16"/>
-        <v>4651</v>
-      </c>
-      <c r="J23" s="12">
-        <f t="shared" si="16"/>
-        <v>2313</v>
-      </c>
-      <c r="K23" s="16">
-        <f t="shared" si="16"/>
-        <v>1141.1399999999999</v>
-      </c>
-      <c r="L23" s="16">
-        <f t="shared" si="16"/>
-        <v>1141.1399999999999</v>
-      </c>
-      <c r="M23" s="16">
-        <f t="shared" si="16"/>
-        <v>1141.1399999999999</v>
-      </c>
-      <c r="N23" s="16">
-        <f t="shared" si="16"/>
-        <v>1141.1399999999999</v>
-      </c>
-      <c r="O23" s="16">
-        <f t="shared" si="16"/>
-        <v>1141.1399999999999</v>
-      </c>
-      <c r="P23" s="16">
-        <f t="shared" si="16"/>
-        <v>1141.1399999999999</v>
-      </c>
-      <c r="Q23" s="16">
-        <f t="shared" si="16"/>
-        <v>1141.1399999999999</v>
-      </c>
-      <c r="R23" s="16">
-        <f t="shared" si="16"/>
-        <v>1141.1399999999999</v>
-      </c>
-      <c r="S23" s="16">
-        <f t="shared" si="16"/>
-        <v>1141.1399999999999</v>
-      </c>
-      <c r="T23" s="16">
-        <f t="shared" si="16"/>
-        <v>1141.1399999999999</v>
-      </c>
-      <c r="U23" s="16">
-        <f>T23*(1+$W$27)</f>
-        <v>1129.7285999999999</v>
-      </c>
-      <c r="V23" s="16">
-        <f t="shared" ref="V23:CG23" si="17">U23*(1+$W$27)</f>
-        <v>1118.4313139999999</v>
-      </c>
-      <c r="W23" s="16">
-        <f t="shared" si="17"/>
-        <v>1107.2470008599998</v>
-      </c>
-      <c r="X23" s="16">
-        <f t="shared" si="17"/>
-        <v>1096.1745308513998</v>
-      </c>
-      <c r="Y23" s="16">
-        <f t="shared" si="17"/>
-        <v>1085.2127855428857</v>
-      </c>
-      <c r="Z23" s="16">
-        <f t="shared" si="17"/>
-        <v>1074.360657687457</v>
-      </c>
-      <c r="AA23" s="16">
-        <f t="shared" si="17"/>
-        <v>1063.6170511105825</v>
-      </c>
-      <c r="AB23" s="16">
-        <f t="shared" si="17"/>
-        <v>1052.9808805994767</v>
-      </c>
-      <c r="AC23" s="16">
-        <f t="shared" si="17"/>
-        <v>1042.4510717934818</v>
-      </c>
-      <c r="AD23" s="16">
-        <f t="shared" si="17"/>
-        <v>1032.0265610755469</v>
-      </c>
-      <c r="AE23" s="16">
-        <f t="shared" si="17"/>
-        <v>1021.7062954647914</v>
-      </c>
-      <c r="AF23" s="16">
-        <f t="shared" si="17"/>
-        <v>1011.4892325101436</v>
-      </c>
-      <c r="AG23" s="16">
-        <f t="shared" si="17"/>
-        <v>1001.3743401850421</v>
-      </c>
-      <c r="AH23" s="16">
-        <f t="shared" si="17"/>
-        <v>991.36059678319168</v>
-      </c>
-      <c r="AI23" s="16">
-        <f t="shared" si="17"/>
-        <v>981.44699081535975</v>
-      </c>
-      <c r="AJ23" s="16">
-        <f t="shared" si="17"/>
-        <v>971.63252090720619</v>
-      </c>
-      <c r="AK23" s="16">
-        <f t="shared" si="17"/>
-        <v>961.91619569813406</v>
-      </c>
-      <c r="AL23" s="16">
-        <f t="shared" si="17"/>
-        <v>952.29703374115275</v>
-      </c>
-      <c r="AM23" s="16">
-        <f t="shared" si="17"/>
-        <v>942.77406340374125</v>
-      </c>
-      <c r="AN23" s="16">
-        <f t="shared" si="17"/>
-        <v>933.34632276970387</v>
-      </c>
-      <c r="AO23" s="16">
-        <f t="shared" si="17"/>
-        <v>924.01285954200682</v>
-      </c>
-      <c r="AP23" s="16">
-        <f t="shared" si="17"/>
-        <v>914.77273094658676</v>
-      </c>
-      <c r="AQ23" s="16">
-        <f t="shared" si="17"/>
-        <v>905.62500363712093</v>
-      </c>
-      <c r="AR23" s="16">
-        <f t="shared" si="17"/>
-        <v>896.56875360074969</v>
-      </c>
-      <c r="AS23" s="16">
-        <f t="shared" si="17"/>
-        <v>887.60306606474217</v>
-      </c>
-      <c r="AT23" s="16">
-        <f t="shared" si="17"/>
-        <v>878.72703540409475</v>
-      </c>
-      <c r="AU23" s="16">
-        <f t="shared" si="17"/>
-        <v>869.93976505005378</v>
-      </c>
-      <c r="AV23" s="16">
-        <f t="shared" si="17"/>
-        <v>861.24036739955318</v>
-      </c>
-      <c r="AW23" s="16">
-        <f t="shared" si="17"/>
-        <v>852.62796372555761</v>
-      </c>
-      <c r="AX23" s="16">
-        <f t="shared" si="17"/>
-        <v>844.10168408830202</v>
-      </c>
-      <c r="AY23" s="16">
-        <f t="shared" si="17"/>
-        <v>835.66066724741904</v>
-      </c>
-      <c r="AZ23" s="16">
-        <f t="shared" si="17"/>
-        <v>827.30406057494486</v>
-      </c>
-      <c r="BA23" s="16">
-        <f t="shared" si="17"/>
-        <v>819.03101996919543</v>
-      </c>
-      <c r="BB23" s="16">
-        <f t="shared" si="17"/>
-        <v>810.84070976950352</v>
-      </c>
-      <c r="BC23" s="16">
-        <f t="shared" si="17"/>
-        <v>802.7323026718085</v>
-      </c>
-      <c r="BD23" s="16">
-        <f t="shared" si="17"/>
-        <v>794.70497964509036</v>
-      </c>
-      <c r="BE23" s="16">
-        <f t="shared" si="17"/>
-        <v>786.75792984863949</v>
-      </c>
-      <c r="BF23" s="16">
-        <f t="shared" si="17"/>
-        <v>778.89035055015313</v>
-      </c>
-      <c r="BG23" s="16">
-        <f t="shared" si="17"/>
-        <v>771.10144704465154</v>
-      </c>
-      <c r="BH23" s="16">
-        <f t="shared" si="17"/>
-        <v>763.39043257420497</v>
-      </c>
-      <c r="BI23" s="16">
-        <f t="shared" si="17"/>
-        <v>755.75652824846293</v>
-      </c>
-      <c r="BJ23" s="16">
-        <f t="shared" si="17"/>
-        <v>748.19896296597824</v>
-      </c>
-      <c r="BK23" s="16">
-        <f t="shared" si="17"/>
-        <v>740.71697333631846</v>
-      </c>
-      <c r="BL23" s="16">
-        <f t="shared" si="17"/>
-        <v>733.3098036029553</v>
-      </c>
-      <c r="BM23" s="16">
-        <f t="shared" si="17"/>
-        <v>725.97670556692572</v>
-      </c>
-      <c r="BN23" s="16">
-        <f t="shared" si="17"/>
-        <v>718.71693851125644</v>
-      </c>
-      <c r="BO23" s="16">
-        <f t="shared" si="17"/>
-        <v>711.52976912614383</v>
-      </c>
-      <c r="BP23" s="16">
-        <f t="shared" si="17"/>
-        <v>704.41447143488244</v>
-      </c>
-      <c r="BQ23" s="16">
-        <f t="shared" si="17"/>
-        <v>697.37032672053363</v>
-      </c>
-      <c r="BR23" s="16">
-        <f t="shared" si="17"/>
-        <v>690.39662345332829</v>
-      </c>
-      <c r="BS23" s="16">
-        <f t="shared" si="17"/>
-        <v>683.49265721879499</v>
-      </c>
-      <c r="BT23" s="16">
-        <f t="shared" si="17"/>
-        <v>676.65773064660698</v>
-      </c>
-      <c r="BU23" s="16">
-        <f t="shared" si="17"/>
-        <v>669.89115334014093</v>
-      </c>
-      <c r="BV23" s="16">
-        <f t="shared" si="17"/>
-        <v>663.1922418067395</v>
-      </c>
-      <c r="BW23" s="16">
-        <f t="shared" si="17"/>
-        <v>656.56031938867216</v>
-      </c>
-      <c r="BX23" s="16">
-        <f t="shared" si="17"/>
-        <v>649.99471619478538</v>
-      </c>
-      <c r="BY23" s="16">
-        <f t="shared" si="17"/>
-        <v>643.49476903283755</v>
-      </c>
-      <c r="BZ23" s="16">
-        <f t="shared" si="17"/>
-        <v>637.05982134250917</v>
-      </c>
-      <c r="CA23" s="16">
-        <f t="shared" si="17"/>
-        <v>630.6892231290841</v>
-      </c>
-      <c r="CB23" s="16">
-        <f t="shared" si="17"/>
-        <v>624.38233089779328</v>
-      </c>
-      <c r="CC23" s="16">
-        <f t="shared" si="17"/>
-        <v>618.13850758881529</v>
-      </c>
-      <c r="CD23" s="16">
-        <f t="shared" si="17"/>
-        <v>611.95712251292719</v>
-      </c>
-      <c r="CE23" s="16">
-        <f t="shared" si="17"/>
-        <v>605.83755128779796</v>
-      </c>
-      <c r="CF23" s="16">
-        <f t="shared" si="17"/>
-        <v>599.77917577491996</v>
-      </c>
-      <c r="CG23" s="16">
-        <f t="shared" si="17"/>
-        <v>593.78138401717081</v>
-      </c>
-      <c r="CH23" s="16">
-        <f t="shared" ref="CH23:EO23" si="18">CG23*(1+$W$27)</f>
-        <v>587.84357017699915</v>
-      </c>
-      <c r="CI23" s="16">
-        <f t="shared" si="18"/>
-        <v>581.96513447522921</v>
-      </c>
-      <c r="CJ23" s="16">
-        <f t="shared" si="18"/>
-        <v>576.14548313047692</v>
-      </c>
-      <c r="CK23" s="16">
-        <f t="shared" si="18"/>
-        <v>570.3840282991722</v>
-      </c>
-      <c r="CL23" s="16">
-        <f t="shared" si="18"/>
-        <v>564.68018801618052</v>
-      </c>
-      <c r="CM23" s="16">
-        <f t="shared" si="18"/>
-        <v>559.03338613601875</v>
-      </c>
-      <c r="CN23" s="16">
-        <f t="shared" si="18"/>
-        <v>553.44305227465861</v>
-      </c>
-      <c r="CO23" s="16">
-        <f t="shared" si="18"/>
-        <v>547.90862175191205</v>
-      </c>
-      <c r="CP23" s="16">
-        <f t="shared" si="18"/>
-        <v>542.42953553439293</v>
-      </c>
-      <c r="CQ23" s="16">
-        <f t="shared" si="18"/>
-        <v>537.005240179049</v>
-      </c>
-      <c r="CR23" s="16">
-        <f t="shared" si="18"/>
-        <v>531.63518777725847</v>
-      </c>
-      <c r="CS23" s="16">
-        <f t="shared" si="18"/>
-        <v>526.31883589948586</v>
-      </c>
-      <c r="CT23" s="16">
-        <f t="shared" si="18"/>
-        <v>521.05564754049101</v>
-      </c>
-      <c r="CU23" s="16">
-        <f t="shared" si="18"/>
-        <v>515.84509106508608</v>
-      </c>
-      <c r="CV23" s="16">
-        <f t="shared" si="18"/>
-        <v>510.68664015443522</v>
-      </c>
-      <c r="CW23" s="16">
-        <f t="shared" si="18"/>
-        <v>505.57977375289084</v>
-      </c>
-      <c r="CX23" s="16">
-        <f t="shared" si="18"/>
-        <v>500.52397601536194</v>
-      </c>
-      <c r="CY23" s="16">
-        <f t="shared" si="18"/>
-        <v>495.5187362552083</v>
-      </c>
-      <c r="CZ23" s="16">
-        <f t="shared" si="18"/>
-        <v>490.56354889265623</v>
-      </c>
-      <c r="DA23" s="16">
-        <f t="shared" si="18"/>
-        <v>485.65791340372965</v>
-      </c>
-      <c r="DB23" s="16">
-        <f t="shared" si="18"/>
-        <v>480.80133426969235</v>
-      </c>
-      <c r="DC23" s="16">
-        <f t="shared" si="18"/>
-        <v>475.99332092699541</v>
-      </c>
-      <c r="DD23" s="16">
-        <f t="shared" si="18"/>
-        <v>471.23338771772546</v>
-      </c>
-      <c r="DE23" s="16">
-        <f t="shared" si="18"/>
-        <v>466.52105384054818</v>
-      </c>
-      <c r="DF23" s="16">
-        <f t="shared" si="18"/>
-        <v>461.85584330214272</v>
-      </c>
-      <c r="DG23" s="16">
-        <f t="shared" si="18"/>
-        <v>457.23728486912131</v>
-      </c>
-      <c r="DH23" s="16">
-        <f t="shared" si="18"/>
-        <v>452.66491202043011</v>
-      </c>
-      <c r="DI23" s="16">
-        <f t="shared" si="18"/>
-        <v>448.13826290022581</v>
-      </c>
-      <c r="DJ23" s="16">
-        <f t="shared" si="18"/>
-        <v>443.65688027122354</v>
-      </c>
-      <c r="DK23" s="16">
-        <f t="shared" si="18"/>
-        <v>439.22031146851128</v>
-      </c>
-      <c r="DL23" s="16">
-        <f t="shared" si="18"/>
-        <v>434.82810835382617</v>
-      </c>
-      <c r="DM23" s="16">
-        <f t="shared" si="18"/>
-        <v>430.4798272702879</v>
-      </c>
-      <c r="DN23" s="16">
-        <f t="shared" si="18"/>
-        <v>426.175028997585</v>
-      </c>
-      <c r="DO23" s="16">
-        <f t="shared" si="18"/>
-        <v>421.91327870760915</v>
-      </c>
-      <c r="DP23" s="16">
-        <f t="shared" si="18"/>
-        <v>417.69414592053306</v>
-      </c>
-      <c r="DQ23" s="16">
-        <f t="shared" si="18"/>
-        <v>413.51720446132771</v>
-      </c>
-      <c r="DR23" s="16">
-        <f t="shared" si="18"/>
-        <v>409.38203241671442</v>
-      </c>
-      <c r="DS23" s="16">
-        <f t="shared" si="18"/>
-        <v>405.28821209254727</v>
-      </c>
-      <c r="DT23" s="16">
-        <f t="shared" si="18"/>
-        <v>401.23532997162181</v>
-      </c>
-      <c r="DU23" s="16">
-        <f t="shared" si="18"/>
-        <v>397.2229766719056</v>
-      </c>
-      <c r="DV23" s="16">
-        <f t="shared" si="18"/>
-        <v>393.25074690518653</v>
-      </c>
-      <c r="DW23" s="16">
-        <f t="shared" si="18"/>
-        <v>389.31823943613466</v>
-      </c>
-      <c r="DX23" s="16">
-        <f t="shared" si="18"/>
-        <v>385.4250570417733</v>
-      </c>
-      <c r="DY23" s="16">
-        <f t="shared" si="18"/>
-        <v>381.57080647135558</v>
-      </c>
-      <c r="DZ23" s="16">
-        <f t="shared" si="18"/>
-        <v>377.75509840664205</v>
-      </c>
-      <c r="EA23" s="16">
-        <f t="shared" si="18"/>
-        <v>373.97754742257564</v>
-      </c>
-      <c r="EB23" s="16">
-        <f t="shared" si="18"/>
-        <v>370.23777194834986</v>
-      </c>
-      <c r="EC23" s="16">
-        <f t="shared" si="18"/>
-        <v>366.53539422886638</v>
-      </c>
-      <c r="ED23" s="16">
-        <f t="shared" si="18"/>
-        <v>362.87004028657771</v>
-      </c>
-      <c r="EE23" s="16">
-        <f t="shared" si="18"/>
-        <v>359.24133988371193</v>
-      </c>
-      <c r="EF23" s="16">
-        <f t="shared" si="18"/>
-        <v>355.64892648487483</v>
-      </c>
-      <c r="EG23" s="16">
-        <f t="shared" si="18"/>
-        <v>352.09243722002606</v>
-      </c>
-      <c r="EH23" s="16">
-        <f t="shared" si="18"/>
-        <v>348.57151284782577</v>
-      </c>
-      <c r="EI23" s="16">
-        <f t="shared" si="18"/>
-        <v>345.08579771934751</v>
-      </c>
-      <c r="EJ23" s="16">
-        <f t="shared" si="18"/>
-        <v>341.63493974215402</v>
-      </c>
-      <c r="EK23" s="16">
-        <f t="shared" si="18"/>
-        <v>338.21859034473249</v>
-      </c>
-      <c r="EL23" s="16">
-        <f t="shared" si="18"/>
-        <v>334.83640444128514</v>
-      </c>
-      <c r="EM23" s="16">
-        <f t="shared" si="18"/>
-        <v>331.48804039687229</v>
-      </c>
-      <c r="EN23" s="16">
-        <f t="shared" si="18"/>
-        <v>328.17315999290355</v>
-      </c>
-      <c r="EO23" s="16">
-        <f t="shared" si="18"/>
-        <v>324.89142839297449</v>
-      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="16"/>
+      <c r="S23" s="16"/>
+      <c r="T23" s="16"/>
+      <c r="U23" s="16"/>
+      <c r="V23" s="16"/>
+      <c r="W23" s="16"/>
+      <c r="X23" s="16"/>
+      <c r="Y23" s="16"/>
+      <c r="Z23" s="16"/>
+      <c r="AA23" s="16"/>
+      <c r="AB23" s="16"/>
+      <c r="AC23" s="16"/>
+      <c r="AD23" s="16"/>
+      <c r="AE23" s="16"/>
+      <c r="AF23" s="16"/>
+      <c r="AG23" s="16"/>
+      <c r="AH23" s="16"/>
+      <c r="AI23" s="16"/>
+      <c r="AJ23" s="16"/>
+      <c r="AK23" s="16"/>
+      <c r="AL23" s="16"/>
+      <c r="AM23" s="16"/>
+      <c r="AN23" s="16"/>
+      <c r="AO23" s="16"/>
+      <c r="AP23" s="16"/>
+      <c r="AQ23" s="16"/>
+      <c r="AR23" s="16"/>
+      <c r="AS23" s="16"/>
+      <c r="AT23" s="16"/>
+      <c r="AU23" s="16"/>
+      <c r="AV23" s="16"/>
+      <c r="AW23" s="16"/>
+      <c r="AX23" s="16"/>
+      <c r="AY23" s="16"/>
+      <c r="AZ23" s="16"/>
+      <c r="BA23" s="16"/>
+      <c r="BB23" s="16"/>
+      <c r="BC23" s="16"/>
+      <c r="BD23" s="16"/>
+      <c r="BE23" s="16"/>
+      <c r="BF23" s="16"/>
+      <c r="BG23" s="16"/>
+      <c r="BH23" s="16"/>
+      <c r="BI23" s="16"/>
+      <c r="BJ23" s="16"/>
+      <c r="BK23" s="16"/>
+      <c r="BL23" s="16"/>
+      <c r="BM23" s="16"/>
+      <c r="BN23" s="16"/>
+      <c r="BO23" s="16"/>
+      <c r="BP23" s="16"/>
+      <c r="BQ23" s="16"/>
+      <c r="BR23" s="16"/>
+      <c r="BS23" s="16"/>
+      <c r="BT23" s="16"/>
+      <c r="BU23" s="16"/>
+      <c r="BV23" s="16"/>
+      <c r="BW23" s="16"/>
+      <c r="BX23" s="16"/>
+      <c r="BY23" s="16"/>
+      <c r="BZ23" s="16"/>
+      <c r="CA23" s="16"/>
+      <c r="CB23" s="16"/>
+      <c r="CC23" s="16"/>
+      <c r="CD23" s="16"/>
+      <c r="CE23" s="16"/>
+      <c r="CF23" s="16"/>
+      <c r="CG23" s="16"/>
+      <c r="CH23" s="16"/>
+      <c r="CI23" s="16"/>
+      <c r="CJ23" s="16"/>
+      <c r="CK23" s="16"/>
+      <c r="CL23" s="16"/>
+      <c r="CM23" s="16"/>
+      <c r="CN23" s="16"/>
+      <c r="CO23" s="16"/>
+      <c r="CP23" s="16"/>
+      <c r="CQ23" s="16"/>
+      <c r="CR23" s="16"/>
+      <c r="CS23" s="16"/>
+      <c r="CT23" s="16"/>
+      <c r="CU23" s="16"/>
+      <c r="CV23" s="16"/>
+      <c r="CW23" s="16"/>
+      <c r="CX23" s="16"/>
+      <c r="CY23" s="16"/>
+      <c r="CZ23" s="16"/>
+      <c r="DA23" s="16"/>
+      <c r="DB23" s="16"/>
+      <c r="DC23" s="16"/>
+      <c r="DD23" s="16"/>
+      <c r="DE23" s="16"/>
+      <c r="DF23" s="16"/>
+      <c r="DG23" s="16"/>
+      <c r="DH23" s="16"/>
+      <c r="DI23" s="16"/>
+      <c r="DJ23" s="16"/>
+      <c r="DK23" s="16"/>
+      <c r="DL23" s="16"/>
+      <c r="DM23" s="16"/>
+      <c r="DN23" s="16"/>
+      <c r="DO23" s="16"/>
+      <c r="DP23" s="16"/>
+      <c r="DQ23" s="16"/>
+      <c r="DR23" s="16"/>
+      <c r="DS23" s="16"/>
+      <c r="DT23" s="16"/>
+      <c r="DU23" s="16"/>
+      <c r="DV23" s="16"/>
+      <c r="DW23" s="16"/>
+      <c r="DX23" s="16"/>
+      <c r="DY23" s="16"/>
+      <c r="DZ23" s="16"/>
+      <c r="EA23" s="16"/>
+      <c r="EB23" s="16"/>
+      <c r="EC23" s="16"/>
+      <c r="ED23" s="16"/>
+      <c r="EE23" s="16"/>
+      <c r="EF23" s="16"/>
+      <c r="EG23" s="16"/>
+      <c r="EH23" s="16"/>
+      <c r="EI23" s="16"/>
+      <c r="EJ23" s="16"/>
+      <c r="EK23" s="16"/>
+      <c r="EL23" s="16"/>
+      <c r="EM23" s="16"/>
+      <c r="EN23" s="16"/>
+      <c r="EO23" s="16"/>
     </row>
     <row r="24" spans="3:145" x14ac:dyDescent="0.25">
-      <c r="C24" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24" s="9">
-        <f t="shared" ref="D24:G24" si="19">D23/D25</f>
-        <v>2.3345162488409077</v>
-      </c>
-      <c r="E24" s="9">
-        <f t="shared" si="19"/>
-        <v>4.5653196203306123</v>
-      </c>
-      <c r="F24" s="9">
-        <f t="shared" si="19"/>
-        <v>-80.636126101571392</v>
-      </c>
-      <c r="G24" s="9">
-        <f t="shared" si="19"/>
-        <v>-96.061179930002311</v>
-      </c>
-      <c r="H24" s="9">
-        <f>H23/H25</f>
-        <v>6.8368200836820083</v>
-      </c>
-      <c r="I24" s="9">
-        <f>I23/I25</f>
-        <v>19.460251046025103</v>
-      </c>
-      <c r="J24" s="45">
-        <f>J23/J25</f>
-        <v>9.6778242677824267</v>
-      </c>
-      <c r="K24" s="9">
-        <f t="shared" ref="K24:T24" si="20">K23/K25</f>
-        <v>5.3574647887323934</v>
-      </c>
-      <c r="L24" s="9">
-        <f t="shared" si="20"/>
-        <v>5.3574647887323934</v>
-      </c>
-      <c r="M24" s="9">
-        <f t="shared" si="20"/>
-        <v>5.3574647887323934</v>
-      </c>
-      <c r="N24" s="9">
-        <f t="shared" si="20"/>
-        <v>5.3574647887323934</v>
-      </c>
-      <c r="O24" s="9">
-        <f t="shared" si="20"/>
-        <v>5.3574647887323934</v>
-      </c>
-      <c r="P24" s="9">
-        <f t="shared" si="20"/>
-        <v>5.3574647887323934</v>
-      </c>
-      <c r="Q24" s="9">
-        <f t="shared" si="20"/>
-        <v>5.3574647887323934</v>
-      </c>
-      <c r="R24" s="9">
-        <f t="shared" si="20"/>
-        <v>5.3574647887323934</v>
-      </c>
-      <c r="S24" s="9">
-        <f t="shared" si="20"/>
-        <v>5.3574647887323934</v>
-      </c>
-      <c r="T24" s="9">
-        <f t="shared" si="20"/>
-        <v>5.3574647887323934</v>
-      </c>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="9"/>
     </row>
     <row r="25" spans="3:145" x14ac:dyDescent="0.25">
-      <c r="C25" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D25" s="8">
-        <v>237.73661899999999</v>
-      </c>
-      <c r="E25" s="8">
-        <v>234.37570400000001</v>
-      </c>
-      <c r="F25" s="8">
-        <v>234.361457</v>
-      </c>
-      <c r="G25" s="8">
-        <v>234.20491000000001</v>
-      </c>
-      <c r="H25" s="8">
-        <v>239</v>
-      </c>
-      <c r="I25" s="8">
-        <v>239</v>
-      </c>
-      <c r="J25" s="5">
-        <v>239</v>
-      </c>
-      <c r="K25" s="8">
-        <v>213</v>
-      </c>
-      <c r="L25" s="8">
-        <v>213</v>
-      </c>
-      <c r="M25" s="8">
-        <v>213</v>
-      </c>
-      <c r="N25" s="8">
-        <v>213</v>
-      </c>
-      <c r="O25" s="8">
-        <v>213</v>
-      </c>
-      <c r="P25" s="8">
-        <v>213</v>
-      </c>
-      <c r="Q25" s="8">
-        <v>213</v>
-      </c>
-      <c r="R25" s="8">
-        <v>213</v>
-      </c>
-      <c r="S25" s="8">
-        <v>213</v>
-      </c>
-      <c r="T25" s="8">
-        <v>213</v>
-      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
     </row>
     <row r="26" spans="3:145" x14ac:dyDescent="0.25">
-      <c r="J26" s="4"/>
-      <c r="V26" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="W26" s="53">
-        <v>0.08</v>
-      </c>
+      <c r="W26" s="49"/>
     </row>
     <row r="27" spans="3:145" x14ac:dyDescent="0.25">
-      <c r="C27" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E27" s="19">
-        <f t="shared" ref="E27:I27" si="21">(E4-D4)/D4</f>
-        <v>2.0153323322532207E-2</v>
-      </c>
-      <c r="F27" s="19">
-        <f t="shared" si="21"/>
-        <v>0.13286334056399132</v>
-      </c>
-      <c r="G27" s="19">
-        <f t="shared" si="21"/>
-        <v>4.4382137728236341E-2</v>
-      </c>
-      <c r="H27" s="19">
-        <f t="shared" si="21"/>
-        <v>-0.50124410686223153</v>
-      </c>
-      <c r="I27" s="19">
-        <f t="shared" si="21"/>
-        <v>9.2949980307207566E-2</v>
-      </c>
-      <c r="J27" s="20">
-        <f>(J4-I4)/I4</f>
-        <v>-0.24</v>
-      </c>
-      <c r="K27" s="19">
-        <f t="shared" ref="K27:T27" si="22">(K4-J4)/J4</f>
-        <v>0</v>
-      </c>
-      <c r="L27" s="19">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="M27" s="19">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="N27" s="19">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="O27" s="19">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="P27" s="19">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="Q27" s="19">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="R27" s="19">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="S27" s="19">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="T27" s="19">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="V27" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="W27" s="53">
-        <v>-0.01</v>
-      </c>
+      <c r="C27" s="2"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="19"/>
+      <c r="T27" s="19"/>
+      <c r="W27" s="49"/>
     </row>
     <row r="28" spans="3:145" x14ac:dyDescent="0.25">
-      <c r="C28" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D28" s="21">
-        <f t="shared" ref="D28:I28" si="23">D6/D4</f>
-        <v>0.96712242156010431</v>
-      </c>
-      <c r="E28" s="21">
-        <f t="shared" si="23"/>
-        <v>0.96482801363495507</v>
-      </c>
-      <c r="F28" s="21">
-        <f t="shared" si="23"/>
-        <v>0.96368734185871574</v>
-      </c>
-      <c r="G28" s="21">
-        <f t="shared" si="23"/>
-        <v>0.96405185961236251</v>
-      </c>
-      <c r="H28" s="21">
-        <f t="shared" si="23"/>
-        <v>0.93527635552054611</v>
-      </c>
-      <c r="I28" s="21">
-        <f t="shared" si="23"/>
-        <v>0.92804804804804808</v>
-      </c>
-      <c r="J28" s="22">
-        <f>J6/J4</f>
-        <v>0.90295558716611346</v>
-      </c>
-      <c r="K28" s="21">
-        <f t="shared" ref="K28:T28" si="24">K6/K4</f>
-        <v>0.90295558716611346</v>
-      </c>
-      <c r="L28" s="21">
-        <f t="shared" si="24"/>
-        <v>0.90295558716611346</v>
-      </c>
-      <c r="M28" s="21">
-        <f t="shared" si="24"/>
-        <v>0.90295558716611346</v>
-      </c>
-      <c r="N28" s="21">
-        <f t="shared" si="24"/>
-        <v>0.90295558716611346</v>
-      </c>
-      <c r="O28" s="21">
-        <f t="shared" si="24"/>
-        <v>0.90295558716611346</v>
-      </c>
-      <c r="P28" s="21">
-        <f t="shared" si="24"/>
-        <v>0.90295558716611346</v>
-      </c>
-      <c r="Q28" s="21">
-        <f t="shared" si="24"/>
-        <v>0.90295558716611346</v>
-      </c>
-      <c r="R28" s="21">
-        <f t="shared" si="24"/>
-        <v>0.90295558716611346</v>
-      </c>
-      <c r="S28" s="21">
-        <f t="shared" si="24"/>
-        <v>0.90295558716611346</v>
-      </c>
-      <c r="T28" s="21">
-        <f t="shared" si="24"/>
-        <v>0.90295558716611346</v>
-      </c>
-      <c r="V28" s="52" t="s">
-        <v>217</v>
-      </c>
-      <c r="W28" s="54">
-        <f>NPV(W26,J23:EO23)</f>
-        <v>14615.080734416955</v>
-      </c>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="21"/>
+      <c r="P28" s="21"/>
+      <c r="Q28" s="21"/>
+      <c r="R28" s="21"/>
+      <c r="S28" s="21"/>
+      <c r="T28" s="21"/>
+      <c r="W28" s="51"/>
     </row>
     <row r="29" spans="3:145" x14ac:dyDescent="0.25">
-      <c r="C29" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D29" s="21">
-        <f t="shared" ref="D29:I29" si="25">D10/D4</f>
-        <v>0.15624753022998497</v>
-      </c>
-      <c r="E29" s="21">
-        <f t="shared" si="25"/>
-        <v>0.16478153083359157</v>
-      </c>
-      <c r="F29" s="21">
-        <f t="shared" si="25"/>
-        <v>0.18744443684606443</v>
-      </c>
-      <c r="G29" s="21">
-        <f t="shared" si="25"/>
-        <v>0.15760869565217392</v>
-      </c>
-      <c r="H29" s="21">
-        <f t="shared" si="25"/>
-        <v>0.20861231455953788</v>
-      </c>
-      <c r="I29" s="21">
-        <f t="shared" si="25"/>
-        <v>0.20384384384384385</v>
-      </c>
-      <c r="J29" s="22">
-        <f>J10/J4</f>
-        <v>0.30551604235814761</v>
-      </c>
-      <c r="K29" s="21">
-        <f t="shared" ref="K29:T29" si="26">K10/K4</f>
-        <v>0.30551604235814761</v>
-      </c>
-      <c r="L29" s="21">
-        <f t="shared" si="26"/>
-        <v>0.30551604235814761</v>
-      </c>
-      <c r="M29" s="21">
-        <f t="shared" si="26"/>
-        <v>0.30551604235814761</v>
-      </c>
-      <c r="N29" s="21">
-        <f t="shared" si="26"/>
-        <v>0.30551604235814761</v>
-      </c>
-      <c r="O29" s="21">
-        <f t="shared" si="26"/>
-        <v>0.30551604235814761</v>
-      </c>
-      <c r="P29" s="21">
-        <f t="shared" si="26"/>
-        <v>0.30551604235814761</v>
-      </c>
-      <c r="Q29" s="21">
-        <f t="shared" si="26"/>
-        <v>0.30551604235814761</v>
-      </c>
-      <c r="R29" s="21">
-        <f t="shared" si="26"/>
-        <v>0.30551604235814761</v>
-      </c>
-      <c r="S29" s="21">
-        <f t="shared" si="26"/>
-        <v>0.30551604235814761</v>
-      </c>
-      <c r="T29" s="21">
-        <f t="shared" si="26"/>
-        <v>0.30551604235814761</v>
-      </c>
-      <c r="V29" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="W29" s="8">
-        <v>213</v>
-      </c>
+      <c r="C29" s="10"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="21"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="21"/>
+      <c r="Q29" s="21"/>
+      <c r="R29" s="21"/>
+      <c r="S29" s="21"/>
+      <c r="T29" s="21"/>
+      <c r="W29" s="8"/>
     </row>
     <row r="30" spans="3:145" x14ac:dyDescent="0.25">
-      <c r="C30" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D30" s="21">
-        <f t="shared" ref="D30:I30" si="27">D15/D4</f>
-        <v>7.2710029242076979E-2</v>
-      </c>
-      <c r="E30" s="21">
-        <f t="shared" si="27"/>
-        <v>8.5373411837620081E-2</v>
-      </c>
-      <c r="F30" s="21">
-        <f>F15/F4</f>
-        <v>0.11263078711618683</v>
-      </c>
-      <c r="G30" s="21">
-        <f t="shared" si="27"/>
-        <v>7.1961760083813511E-2</v>
-      </c>
-      <c r="H30" s="21">
-        <f t="shared" si="27"/>
-        <v>0.1165813312327688</v>
-      </c>
-      <c r="I30" s="21">
-        <f t="shared" si="27"/>
-        <v>-0.10222222222222223</v>
-      </c>
-      <c r="J30" s="22">
-        <f>J15/J4</f>
-        <v>0.23123123123123124</v>
-      </c>
-      <c r="K30" s="21">
-        <f t="shared" ref="K30:T30" si="28">K15/K4</f>
-        <v>0.23123123123123124</v>
-      </c>
-      <c r="L30" s="21">
-        <f t="shared" si="28"/>
-        <v>0.23123123123123124</v>
-      </c>
-      <c r="M30" s="21">
-        <f t="shared" si="28"/>
-        <v>0.23123123123123124</v>
-      </c>
-      <c r="N30" s="21">
-        <f t="shared" si="28"/>
-        <v>0.23123123123123124</v>
-      </c>
-      <c r="O30" s="21">
-        <f t="shared" si="28"/>
-        <v>0.23123123123123124</v>
-      </c>
-      <c r="P30" s="21">
-        <f t="shared" si="28"/>
-        <v>0.23123123123123124</v>
-      </c>
-      <c r="Q30" s="21">
-        <f t="shared" si="28"/>
-        <v>0.23123123123123124</v>
-      </c>
-      <c r="R30" s="21">
-        <f t="shared" si="28"/>
-        <v>0.23123123123123124</v>
-      </c>
-      <c r="S30" s="21">
-        <f t="shared" si="28"/>
-        <v>0.23123123123123124</v>
-      </c>
-      <c r="T30" s="21">
-        <f t="shared" si="28"/>
-        <v>0.23123123123123124</v>
-      </c>
-      <c r="V30" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="W30" s="55">
-        <f>W28/W29</f>
-        <v>68.615402508999793</v>
-      </c>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="21"/>
+      <c r="P30" s="21"/>
+      <c r="Q30" s="21"/>
+      <c r="R30" s="21"/>
+      <c r="S30" s="21"/>
+      <c r="T30" s="21"/>
+      <c r="W30" s="51"/>
     </row>
     <row r="31" spans="3:145" x14ac:dyDescent="0.25">
-      <c r="V31" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="W31" s="47">
-        <f>(W30-Modell!B4)/Modell!B4</f>
-        <v>-0.73910493342585626</v>
-      </c>
+      <c r="V31" s="2"/>
+      <c r="W31" s="46"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
